--- a/Results/Classification/Control vs Atypical/Control 0 (13, 11, 8, 14, 6)/Atypical 1 (2, 6, 9, 3, 5)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 0 (13, 11, 8, 14, 6)/Atypical 1 (2, 6, 9, 3, 5)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.920025824800212</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.920025824800212</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.5023501437370876</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5023501437370876</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.887987325265638E-29</v>
+        <v>0.8735947769639344</v>
       </c>
       <c r="E4">
-        <v>3.887987325265638E-29</v>
+        <v>0.8735947769639344</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.868521308544865E-14</v>
+        <v>0.2900510517540365</v>
       </c>
       <c r="E5">
-        <v>1.868521308544865E-14</v>
+        <v>0.2900510517540365</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -509,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.2509929039701788</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.2509929039701788</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.3791828664405087</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.6208171335594912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.02478555272305007</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9752144472769499</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.2959387053810721</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7040612946189279</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.5896979176579943</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.4103020823420057</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.4936121180219135</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5063878819780865</v>
       </c>
       <c r="F11">
-        <v>23.55343246459961</v>
+        <v>1.304272532463074</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.956874411011657</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.956874411011657</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.6219649011393844</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.6219649011393844</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -630,13 +630,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.9015223530272547</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.9015223530272547</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -644,13 +644,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.5346766011167032</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.5346766011167032</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -658,13 +658,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.230688658512838</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.230688658512838</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.512905428161204</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.487094571838796</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.004239941232161234</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.9957600587678388</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.3322931244332533</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.6677068755667467</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.7414485711831754</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.2585514288168246</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.6246586447050348</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.3753413552949652</v>
       </c>
       <c r="F21">
-        <v>32.60842514038086</v>
+        <v>1.546392202377319</v>
       </c>
       <c r="G21">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
